--- a/medicine/Enfance/Lassie,_chien_fidèle/Lassie,_chien_fidèle.xlsx
+++ b/medicine/Enfance/Lassie,_chien_fidèle/Lassie,_chien_fidèle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lassie,_chien_fid%C3%A8le</t>
+          <t>Lassie,_chien_fidèle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lassie, chien fidèle (titre original : Lassie Come-Home[1], littéralement : Lassie Reviens-à-la-maison), est un roman pour la jeunesse américain écrit par Eric Knight. L'histoire a d'abord paru dans le journal américain The Saturday Evening Post[2] en 1938 puis sous la forme de roman en 1940, toujours aux États-Unis. 
-En France, le roman a été publié pour la première fois en 1949 aux éditions Hachette dans la collection Bibliothèque rose illustrée sous le titre : Topsy, chien fidèle[3].
+Lassie, chien fidèle (titre original : Lassie Come-Home, littéralement : Lassie Reviens-à-la-maison), est un roman pour la jeunesse américain écrit par Eric Knight. L'histoire a d'abord paru dans le journal américain The Saturday Evening Post en 1938 puis sous la forme de roman en 1940, toujours aux États-Unis. 
+En France, le roman a été publié pour la première fois en 1949 aux éditions Hachette dans la collection Bibliothèque rose illustrée sous le titre : Topsy, chien fidèle.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lassie,_chien_fid%C3%A8le</t>
+          <t>Lassie,_chien_fidèle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>L'auteur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eric Knight (1897-1943), auteur anglais, écrit cette histoire en 1938 après que sa chienne préférée, un border collie nommée Toots (dont le nom sera repris dans le roman et attribué à un autre chien) s'est perdue dans la forêt et a réussi à retrouver le chemin de son foyer. Eric Knight ne connaîtra pas l'étendue du succès universel du personnage de Lassie et ses nombreuses futures adaptations car il meurt dans un accident d'avion en 1943.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lassie,_chien_fid%C3%A8le</t>
+          <t>Lassie,_chien_fidèle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En Angleterre, Lassie, la magnifique chienne du petit Joe Carraclough, est vendue par le père de Joe à cause de la pauvreté. L'animal est emmené dans la lointaine Écosse par son nouveau propriétaire. Mais Lassie, après moult péripéties et dangers, parvient à regagner son premier foyer.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lassie,_chien_fid%C3%A8le</t>
+          <t>Lassie,_chien_fidèle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout le monde à Greenall Bridge, dans le Yorkshire, connaît Lassie, la chienne de Sam Carraclough. C'est même le chien le plus célèbre de toute la région, et cela pour trois raisons : d’abord, personne n'avait vu un aussi beau colley. Ensuite, Lassie avait la régularité d'une horloge : tous les jours, quel que fût le temps, à quatre heures moins cinq elle attendait son petit maître Joe à la sortie de l'école. Et enfin, Lassie avait une grande valeur et était l’orgueil de la région car Sam Carraclough avait refusé de vendre la chienne au riche duc de Rudling, qui possède un chenil avec les plus beaux chiens qu'on ait pu voir.
 Mais le chômage fait rage dans cette région isolée de l’Angleterre, et les mines ferment les unes après les autres. Sam Carraclough se retrouve sans emploi et a du mal à faire vivre sa famille. À contrecœur et en cachette de son fils, il se résout à vendre Lassie au duc de Rudling. Ce jour-là, au sortir de l'école Joe ne voit pas Lassie pour la première fois. Inquiet, il court chez lui et apprend la nouvelle. Joe ne comprend pas la décision de ses parents et est anéanti par le chagrin. Ses parents promettent de lui acheter un chiot mais Joe ne veut pas d'autre chien que Lassie. 
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lassie,_chien_fid%C3%A8le</t>
+          <t>Lassie,_chien_fidèle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,9 +633,11 @@
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1949 : Topsy, chien fidèle[4] - Éditions Hachette, collection Bibliothèque rose illustrée, illustrations de Roger Barret, traduction de Janine de Villebonne, 249 p.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1949 : Topsy, chien fidèle - Éditions Hachette, collection Bibliothèque rose illustrée, illustrations de Roger Barret, traduction de Janine de Villebonne, 249 p.
 1950 : Lassie, chien fidèle - Hachette, coll. Bibliothèque rose illustrée, ill. Roger Barret, trad. Janine de Villebonne, 249 p.
 1950 : Lassie, chien fidèle - Hachette, coll. des Grands Romanciers, trad. Janine de Villebonne, abrégé, ill. R. Simon, 157 p.
 1953 : Lassie, chien fidèle - Hachette, coll. Idéal-Bibliothèque, abrégé, ill. Albert Chazelle, 190 p.
@@ -638,7 +658,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lassie,_chien_fid%C3%A8le</t>
+          <t>Lassie,_chien_fidèle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,7 +676,9 @@
           <t>Adaptation du roman au cinéma</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1943 : Fidèle Lassie : film américain réalisé par Fred M. Wilcox, avec Roddy McDowall et Elizabeth Taylor.</t>
         </is>
@@ -668,7 +690,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lassie,_chien_fid%C3%A8le</t>
+          <t>Lassie,_chien_fidèle</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -686,7 +708,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Livre
 Fictions et journaux pour la jeunesse au XXe siècle, de Raymond Perrin, Éditeur : L'Harmattan, 554 pages, 2009,  (ISBN 229609208X et 978-2296092082)
